--- a/Documents/BacklogManagment/ProductBacklog.xlsx
+++ b/Documents/BacklogManagment/ProductBacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Tien Cao\Desktop\GitHub Project\BK-Projects\RestaurantManagement\Documents\BacklogManagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E81670-C16B-4E17-BEA9-6FE167433D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82057686-4834-4CE0-A8C6-8240DE762F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PRODUCT BACKLOG - RESTAURANT MANAGEMENT</t>
   </si>
@@ -39,7 +39,52 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Authentication</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User Management(Insert, Update, Delete)</t>
+  </si>
+  <si>
+    <t>View User list</t>
+  </si>
+  <si>
+    <t>View User details</t>
+  </si>
+  <si>
+    <t>Reservation Management(Insert, Update, Delete)</t>
+  </si>
+  <si>
+    <t>View Reservation list</t>
+  </si>
+  <si>
+    <t>View Reservation details</t>
+  </si>
+  <si>
+    <t>Table Management(Insert, Update, Delete)</t>
+  </si>
+  <si>
+    <t>View Table list</t>
+  </si>
+  <si>
+    <t>View Table details</t>
+  </si>
+  <si>
+    <t>Customer Management(Insert, Update, Delete)</t>
+  </si>
+  <si>
+    <t>View Customer list</t>
+  </si>
+  <si>
+    <t>View Customer details</t>
+  </si>
+  <si>
+    <t>Menu Item Management(Insert, Update, Delete)</t>
+  </si>
+  <si>
+    <t>View Menu Item list</t>
+  </si>
+  <si>
+    <t>View Menu Item details</t>
   </si>
 </sst>
 </file>
@@ -477,7 +522,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -513,62 +558,86 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,17 +677,23 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
